--- a/data/output/FV2504_FV2410/ORDRSP/19001.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="254">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="254">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -887,6 +887,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U100" totalsRowShown="0">
+  <autoFilter ref="A1:U100"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1176,7 +1206,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5603,5 +5636,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDRSP/19001.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="352">
   <si>
     <t>#</t>
   </si>
@@ -2648,44 +2648,42 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V23" s="5"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
@@ -2711,9 +2709,7 @@
         <v>219</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
         <v>27</v>
       </c>
@@ -2765,9 +2761,7 @@
         <v>220</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
         <v>27</v>
       </c>
@@ -2825,9 +2819,7 @@
       <c r="K26" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
         <v>27</v>
       </c>
@@ -2856,44 +2848,42 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5" t="s">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V27" s="5"/>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="5" t="s">
@@ -2919,9 +2909,7 @@
         <v>219</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
         <v>28</v>
       </c>
@@ -2973,9 +2961,7 @@
         <v>220</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="5" t="s">
         <v>28</v>
       </c>
@@ -3033,9 +3019,7 @@
         <v>220</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="5" t="s">
         <v>28</v>
       </c>
@@ -3064,44 +3048,42 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M31" s="5" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5" t="s">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V31" s="5"/>
+      <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="5" t="s">
@@ -3127,9 +3109,7 @@
         <v>219</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
         <v>29</v>
       </c>
@@ -3179,9 +3159,7 @@
         <v>220</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="5" t="s">
         <v>29</v>
       </c>
@@ -3237,9 +3215,7 @@
         <v>224</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="5" t="s">
         <v>29</v>
       </c>
@@ -3328,44 +3304,42 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M36" s="5" t="s">
+      <c r="K36" s="2"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5" t="s">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V36" s="5"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3391,9 +3365,7 @@
         <v>219</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>30</v>
       </c>
@@ -3445,9 +3417,7 @@
         <v>220</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3503,9 +3473,7 @@
         <v>220</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>30</v>
       </c>
@@ -3561,9 +3529,7 @@
         <v>220</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="5" t="s">
         <v>30</v>
       </c>
@@ -3619,9 +3585,7 @@
         <v>220</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>30</v>
       </c>
@@ -3675,9 +3639,7 @@
         <v>220</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3704,44 +3666,42 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M43" s="5" t="s">
+      <c r="K43" s="2"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V43" s="5"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="5" t="s">
@@ -3767,9 +3727,7 @@
         <v>219</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="5" t="s">
         <v>31</v>
       </c>
@@ -3821,9 +3779,7 @@
         <v>220</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>31</v>
       </c>
@@ -3881,9 +3837,7 @@
       <c r="K46" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="L46" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="5" t="s">
         <v>31</v>
       </c>
@@ -3912,52 +3866,50 @@
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M47" s="5" t="s">
+      <c r="K47" s="2"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5" t="s">
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V47" s="5"/>
+      <c r="V47" s="2"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="5" t="s">
@@ -4047,9 +3999,7 @@
         <v>227</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>32</v>
       </c>
@@ -4105,9 +4055,7 @@
         <v>227</v>
       </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L50" s="4"/>
       <c r="M50" s="5" t="s">
         <v>32</v>
       </c>
@@ -4161,9 +4109,7 @@
         <v>227</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="5" t="s">
         <v>32</v>
       </c>
@@ -4217,9 +4163,7 @@
         <v>227</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
@@ -4273,9 +4217,7 @@
         <v>227</v>
       </c>
       <c r="K53" s="5"/>
-      <c r="L53" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="5" t="s">
         <v>32</v>
       </c>
@@ -4302,44 +4244,42 @@
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M54" s="5" t="s">
+      <c r="K54" s="2"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="N54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5" t="s">
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V54" s="5"/>
+      <c r="V54" s="2"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4365,9 +4305,7 @@
         <v>219</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>33</v>
       </c>
@@ -4419,9 +4357,7 @@
         <v>220</v>
       </c>
       <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="5" t="s">
         <v>33</v>
       </c>
@@ -4477,9 +4413,7 @@
         <v>220</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>33</v>
       </c>
@@ -4535,9 +4469,7 @@
         <v>220</v>
       </c>
       <c r="K58" s="5"/>
-      <c r="L58" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="5" t="s">
         <v>33</v>
       </c>
@@ -4593,9 +4525,7 @@
         <v>220</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>33</v>
       </c>
@@ -4649,9 +4579,7 @@
         <v>220</v>
       </c>
       <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="5" t="s">
         <v>33</v>
       </c>

--- a/data/output/FV2504_FV2410/ORDRSP/19001.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19001.xlsx
@@ -1171,7 +1171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1193,6 +1193,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1638,7 +1641,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2002,7 +2005,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2148,7 +2151,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2352,7 +2355,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2536,22 +2539,22 @@
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="9"/>
+      <c r="L20" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M20" s="5"/>
@@ -2569,31 +2572,31 @@
       <c r="A21" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9" t="s">
+      <c r="J21" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M21" s="5"/>
@@ -2611,29 +2614,29 @@
       <c r="A22" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9" t="s">
+      <c r="J22" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M22" s="5"/>
@@ -2668,7 +2671,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2868,7 +2871,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3068,7 +3071,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3324,7 +3327,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3686,7 +3689,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3890,7 +3893,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4264,7 +4267,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4612,20 +4615,20 @@
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9" t="s">
+      <c r="K61" s="9"/>
+      <c r="L61" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M61" s="5"/>
@@ -4643,27 +4646,27 @@
       <c r="A62" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M62" s="5"/>
@@ -4681,33 +4684,33 @@
       <c r="A63" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="9" t="s">
+      <c r="J63" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M63" s="5"/>
@@ -4725,33 +4728,33 @@
       <c r="A64" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8" t="s">
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9" t="s">
+      <c r="J64" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M64" s="5"/>
@@ -4769,33 +4772,33 @@
       <c r="A65" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8" t="s">
+      <c r="H65" s="9"/>
+      <c r="I65" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="J65" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9" t="s">
+      <c r="J65" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M65" s="5"/>
@@ -4816,20 +4819,20 @@
       <c r="B66" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="9" t="s">
+      <c r="K66" s="9"/>
+      <c r="L66" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M66" s="5"/>
@@ -4847,27 +4850,27 @@
       <c r="A67" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="9" t="s">
+      <c r="K67" s="9"/>
+      <c r="L67" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M67" s="5"/>
@@ -4885,33 +4888,33 @@
       <c r="A68" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="K68" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="L68" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M68" s="5"/>
@@ -4929,33 +4932,33 @@
       <c r="A69" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J69" s="8" t="s">
+      <c r="J69" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="K69" s="8" t="s">
+      <c r="K69" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="L69" s="9" t="s">
+      <c r="L69" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M69" s="5"/>
@@ -4973,33 +4976,33 @@
       <c r="A70" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8" t="s">
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="9" t="s">
+      <c r="J70" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M70" s="5"/>
@@ -5020,24 +5023,24 @@
       <c r="B71" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9" t="s">
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M71" s="5"/>
@@ -5055,33 +5058,33 @@
       <c r="A72" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8" t="s">
+      <c r="H72" s="9"/>
+      <c r="I72" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="J72" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K72" s="8"/>
-      <c r="L72" s="9" t="s">
+      <c r="J72" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M72" s="5"/>
@@ -5099,33 +5102,33 @@
       <c r="A73" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K73" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="L73" s="9" t="s">
+      <c r="L73" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M73" s="5"/>
@@ -5143,33 +5146,33 @@
       <c r="A74" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8" t="s">
+      <c r="H74" s="9"/>
+      <c r="I74" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="9" t="s">
+      <c r="J74" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K74" s="9"/>
+      <c r="L74" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M74" s="5"/>
@@ -5190,24 +5193,24 @@
       <c r="B75" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="9" t="s">
+      <c r="K75" s="9"/>
+      <c r="L75" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M75" s="5"/>
@@ -5225,33 +5228,33 @@
       <c r="A76" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8" t="s">
+      <c r="H76" s="9"/>
+      <c r="I76" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="9" t="s">
+      <c r="J76" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M76" s="5"/>
@@ -5269,33 +5272,33 @@
       <c r="A77" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M77" s="5"/>
@@ -5316,24 +5319,24 @@
       <c r="B78" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
+      <c r="E78" s="9"/>
+      <c r="F78" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K78" s="8"/>
-      <c r="L78" s="9" t="s">
+      <c r="K78" s="9"/>
+      <c r="L78" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M78" s="5"/>
@@ -5351,33 +5354,33 @@
       <c r="A79" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8" t="s">
+      <c r="H79" s="9"/>
+      <c r="I79" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="J79" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9" t="s">
+      <c r="J79" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K79" s="9"/>
+      <c r="L79" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M79" s="5"/>
@@ -5395,31 +5398,31 @@
       <c r="A80" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="J80" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M80" s="5"/>
@@ -5440,20 +5443,20 @@
       <c r="B81" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8" t="s">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M81" s="5"/>
@@ -5471,27 +5474,27 @@
       <c r="A82" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8" t="s">
+      <c r="E82" s="9"/>
+      <c r="F82" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="9" t="s">
+      <c r="K82" s="9"/>
+      <c r="L82" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M82" s="5"/>
@@ -5509,33 +5512,33 @@
       <c r="A83" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8" t="s">
+      <c r="H83" s="9"/>
+      <c r="I83" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J83" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="9" t="s">
+      <c r="J83" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K83" s="9"/>
+      <c r="L83" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M83" s="5"/>
@@ -5553,33 +5556,33 @@
       <c r="A84" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8" t="s">
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="K84" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="L84" s="9" t="s">
+      <c r="L84" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M84" s="5"/>
@@ -5600,22 +5603,22 @@
       <c r="B85" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8" t="s">
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="L85" s="9" t="s">
+      <c r="L85" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M85" s="5"/>
@@ -5633,27 +5636,27 @@
       <c r="A86" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8" t="s">
+      <c r="E86" s="9"/>
+      <c r="F86" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8" t="s">
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="9" t="s">
+      <c r="K86" s="9"/>
+      <c r="L86" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M86" s="5"/>
@@ -5671,33 +5674,33 @@
       <c r="A87" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8" t="s">
+      <c r="H87" s="9"/>
+      <c r="I87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="9" t="s">
+      <c r="J87" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M87" s="5"/>
@@ -5715,31 +5718,31 @@
       <c r="A88" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8" t="s">
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9" t="s">
+      <c r="J88" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K88" s="9"/>
+      <c r="L88" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M88" s="5"/>
@@ -5760,20 +5763,20 @@
       <c r="B89" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8" t="s">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M89" s="5"/>
@@ -5791,27 +5794,27 @@
       <c r="A90" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9" t="s">
+      <c r="K90" s="9"/>
+      <c r="L90" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M90" s="5"/>
@@ -5829,33 +5832,33 @@
       <c r="A91" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8" t="s">
+      <c r="H91" s="9"/>
+      <c r="I91" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J91" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="J91" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M91" s="5"/>
@@ -5873,33 +5876,33 @@
       <c r="A92" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="K92" s="8" t="s">
+      <c r="K92" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="L92" s="9" t="s">
+      <c r="L92" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M92" s="5"/>
@@ -5914,48 +5917,48 @@
       <c r="V92" s="5"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5" t="s">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="2"/>
       <c r="F93" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K93" s="5"/>
+      <c r="K93" s="2"/>
       <c r="L93" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5" t="s">
+      <c r="N93" s="2"/>
+      <c r="O93" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P93" s="5"/>
+      <c r="P93" s="2"/>
       <c r="Q93" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V93" s="5"/>
+      <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -6020,22 +6023,22 @@
       <c r="B95" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8" t="s">
+      <c r="C95" s="9"/>
+      <c r="D95" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8" t="s">
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9" t="s">
+      <c r="K95" s="9"/>
+      <c r="L95" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M95" s="5"/>
@@ -6053,31 +6056,31 @@
       <c r="A96" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8" t="s">
+      <c r="C96" s="9"/>
+      <c r="D96" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="J96" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M96" s="5"/>
@@ -6095,31 +6098,31 @@
       <c r="A97" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8" t="s">
+      <c r="C97" s="9"/>
+      <c r="D97" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8" t="s">
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J97" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="K97" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="L97" s="9" t="s">
+      <c r="L97" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M97" s="5"/>
@@ -6134,48 +6137,48 @@
       <c r="V97" s="5"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K98" s="5"/>
+      <c r="K98" s="2"/>
       <c r="L98" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="M98" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5" t="s">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P98" s="5"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
